--- a/auto_test/data/data_case.xlsx
+++ b/auto_test/data/data_case.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090" activeTab="8"/>
+    <workbookView windowWidth="25200" windowHeight="12090"/>
   </bookViews>
   <sheets>
     <sheet name="场景控制" sheetId="16" r:id="rId1"/>
-    <sheet name="多设备控制" sheetId="9" r:id="rId2"/>
+    <sheet name="多设备控制" sheetId="18" r:id="rId2"/>
     <sheet name="跨机控制-空调" sheetId="11" r:id="rId3"/>
     <sheet name="查询类" sheetId="10" r:id="rId4"/>
     <sheet name="通用技能" sheetId="12" r:id="rId5"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="268">
   <si>
     <t>用例编号</t>
   </si>
@@ -412,7 +412,7 @@
   },
   "nlg": {
     "code": 200,
-    "text": "没有找到洗浴场景,请在美的美居APP上添加"
+    "text": "没有找到宝宝场景,请在美的美居APP上添加"
   }
 }</t>
   </si>
@@ -420,12 +420,12 @@
     <t>control_001</t>
   </si>
   <si>
+    <t>打开所有设备</t>
+  </si>
+  <si>
     <t>发送”打开所有设备“音频信息</t>
   </si>
   <si>
-    <t>打开所有设备</t>
-  </si>
-  <si>
     <t>{
   "login": {
     "code": 200,
@@ -438,6 +438,10 @@
   "nlg": {
     "code": 200,
     "text": "打开"
+  },
+ "device_status": {
+    "code": 200,
+    "power": "on"
   }
 }</t>
   </si>
@@ -462,7 +466,11 @@
   },
   "nlg": {
     "code": 200,
-    "text": "关闭"
+    "text": "马上关掉"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "off"
   }
 }</t>
   </si>
@@ -1589,8 +1597,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
@@ -1617,8 +1625,32 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1646,6 +1678,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
@@ -1653,25 +1700,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1685,40 +1715,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1733,14 +1732,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1768,19 +1776,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1792,31 +1860,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1828,19 +1878,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1858,7 +1902,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1870,13 +1914,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1888,25 +1932,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1924,25 +1950,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2023,6 +2031,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -2040,9 +2057,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2050,23 +2069,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2089,19 +2093,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2113,10 +2121,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5">
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="5">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2125,137 +2133,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="12">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="10">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="5">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="7">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="10">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="6">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="17" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="11">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="12">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="29" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2309,6 +2317,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -2661,8 +2672,8 @@
   <sheetPr/>
   <dimension ref="A1:F31"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31" customHeight="1" outlineLevelCol="5"/>
@@ -3157,7 +3168,7 @@
   <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
@@ -3187,62 +3198,66 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" ht="16.5" spans="1:6">
+    <row r="2" ht="33" spans="1:6">
       <c r="A2" s="20" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="21" t="s">
         <v>67</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="D2" s="10"/>
+      <c r="D2" s="4" t="s">
+        <v>67</v>
+      </c>
       <c r="E2" s="10"/>
       <c r="F2" s="10"/>
     </row>
-    <row r="3" ht="231" spans="1:6">
+    <row r="3" ht="409.5" spans="1:6">
       <c r="A3" s="20"/>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="4" t="s">
+      <c r="B3" s="21"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="D3" s="10"/>
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" ht="16.5" spans="1:6">
+    <row r="4" ht="33" spans="1:6">
       <c r="A4" s="20" t="s">
         <v>70</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="C4" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="D4" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="10"/>
       <c r="E4" s="10"/>
       <c r="F4" s="10"/>
     </row>
-    <row r="5" ht="231" spans="1:6">
+    <row r="5" ht="409.5" spans="1:6">
       <c r="A5" s="20"/>
-      <c r="B5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" s="4" t="s">
+      <c r="B5" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="10"/>
       <c r="E5" s="10"/>
       <c r="F5" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B2:B3"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
@@ -3254,8 +3269,8 @@
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1:F3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
@@ -4813,7 +4828,7 @@
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>

--- a/auto_test/data/data_case.xlsx
+++ b/auto_test/data/data_case.xlsx
@@ -4,25 +4,25 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25200" windowHeight="12090"/>
+    <workbookView windowWidth="25200" windowHeight="12090" activeTab="6"/>
   </bookViews>
   <sheets>
-    <sheet name="场景控制" sheetId="16" r:id="rId1"/>
-    <sheet name="多设备控制" sheetId="18" r:id="rId2"/>
-    <sheet name="跨机控制-空调" sheetId="11" r:id="rId3"/>
-    <sheet name="查询类" sheetId="10" r:id="rId4"/>
-    <sheet name="通用技能" sheetId="12" r:id="rId5"/>
-    <sheet name="rasa" sheetId="13" r:id="rId6"/>
-    <sheet name="故障码问询" sheetId="14" r:id="rId7"/>
-    <sheet name="冰箱" sheetId="15" r:id="rId8"/>
-    <sheet name="设备继承" sheetId="17" r:id="rId9"/>
+    <sheet name="多设备控制" sheetId="19" r:id="rId1"/>
+    <sheet name="设备继承" sheetId="20" r:id="rId2"/>
+    <sheet name="场景控制" sheetId="16" r:id="rId3"/>
+    <sheet name="跨机控制-空调" sheetId="11" r:id="rId4"/>
+    <sheet name="查询类" sheetId="10" r:id="rId5"/>
+    <sheet name="通用技能" sheetId="12" r:id="rId6"/>
+    <sheet name="rasa" sheetId="13" r:id="rId7"/>
+    <sheet name="故障码问询" sheetId="14" r:id="rId8"/>
+    <sheet name="冰箱" sheetId="15" r:id="rId9"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="582" uniqueCount="371">
   <si>
     <t>用例编号</t>
   </si>
@@ -42,6 +42,484 @@
     <t>实际结果</t>
   </si>
   <si>
+    <t>control_001</t>
+  </si>
+  <si>
+    <t>打开所有设备</t>
+  </si>
+  <si>
+    <t>发送”打开所有设备“音频信息</t>
+  </si>
+  <si>
+    <t>校验-状态是否正确</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "打开所有设备"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "打开"
+  },
+ "device_status": {
+    "code": 200,
+    "power": "on"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_002</t>
+  </si>
+  <si>
+    <t>关闭所有设备</t>
+  </si>
+  <si>
+    <t>发送”关闭所有设备“音频信息</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "关闭所有设备"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上关掉"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "off"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_003</t>
+  </si>
+  <si>
+    <t>指定品类名打开</t>
+  </si>
+  <si>
+    <t>发送”打开空调和净化器“音频信息</t>
+  </si>
+  <si>
+    <t>打开空调和净化器</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "打开空调和净化器"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上打开"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "on"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_004</t>
+  </si>
+  <si>
+    <t>指定品类名关掉</t>
+  </si>
+  <si>
+    <t>发送“关闭空调和净化器”音频信息</t>
+  </si>
+  <si>
+    <t>关闭空调和净化器</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "关闭空调和净化器"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上关掉"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "off"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_005</t>
+  </si>
+  <si>
+    <t>区域设备控制-打开</t>
+  </si>
+  <si>
+    <t>发送”打开客厅所有设备“音频信息</t>
+  </si>
+  <si>
+    <t>打开客厅所有设备</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "打开客厅所有设备"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上打开"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "on"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_006</t>
+  </si>
+  <si>
+    <t>区域设备控制-关闭</t>
+  </si>
+  <si>
+    <t>发送“关闭客厅所有设备”音频信息</t>
+  </si>
+  <si>
+    <t>关闭客厅所有设备</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "关闭客厅所有设备"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上关掉"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "off"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_007</t>
+  </si>
+  <si>
+    <t>同品类设备控制-打开</t>
+  </si>
+  <si>
+    <t>发送“打开客厅所有空调”音频信息</t>
+  </si>
+  <si>
+    <t>打开客厅所有空调</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "打开客厅所有空调"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上打开"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "on"
+  }
+}</t>
+  </si>
+  <si>
+    <t>control_008</t>
+  </si>
+  <si>
+    <t>同品类设备控制-关闭</t>
+  </si>
+  <si>
+    <t>发送“关闭客厅所有空调”音频信息</t>
+  </si>
+  <si>
+    <t>关闭客厅所有空调</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "关闭客厅所有空调"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "马上关掉"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "off"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ac_001</t>
+  </si>
+  <si>
+    <t>打开净化器-调节风速</t>
+  </si>
+  <si>
+    <t>发送”打开净化器“音频信息</t>
+  </si>
+  <si>
+    <t>打开净化器</t>
+  </si>
+  <si>
+    <t>发送“风速最大”音频信息</t>
+  </si>
+  <si>
+    <t>风速最大</t>
+  </si>
+  <si>
+    <t>发送“风速小一点”音频信息</t>
+  </si>
+  <si>
+    <t>风速小一点</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "风速小一点"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风速"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "on"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ac_002</t>
+  </si>
+  <si>
+    <t>打开净化器-打开空调-调节风速</t>
+  </si>
+  <si>
+    <t>发送”打开卧室空调“音频信息</t>
+  </si>
+  <si>
+    <t>打开卧室空调</t>
+  </si>
+  <si>
+    <t>发送”卧室空调设为制冷模式“音频信息</t>
+  </si>
+  <si>
+    <t>卧室空调设为制冷模式</t>
+  </si>
+  <si>
+    <t>发送”卧室空调设为最大风“音频信息</t>
+  </si>
+  <si>
+    <t>卧室空调设为最大风</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "风速小一点"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风速"
+  },
+  "device_status": {
+    "code": 200,
+    "wind_speed": "80"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ac_003</t>
+  </si>
+  <si>
+    <t>免设备名-控制灯</t>
+  </si>
+  <si>
+    <t>发送”光线亮一点“音频信息</t>
+  </si>
+  <si>
+    <t>光线亮一点</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "光线亮一点"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "没有找到这个家电"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ac_004</t>
+  </si>
+  <si>
+    <t>猜测设备名-洗衣机</t>
+  </si>
+  <si>
+    <t>发送”帮我洗衣服“音频信息</t>
+  </si>
+  <si>
+    <t>帮我洗衣服</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "帮我洗衣服"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "没有找到这个家电"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ac_005</t>
+  </si>
+  <si>
+    <t>继承和猜设备名同时存在</t>
+  </si>
+  <si>
+    <t>发送”洗衣机开机“音频信息</t>
+  </si>
+  <si>
+    <t>洗衣机开机</t>
+  </si>
+  <si>
+    <t>发送”滤芯还能用多久“音频信息</t>
+  </si>
+  <si>
+    <t>滤芯还能用多久</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "滤芯还能用多久"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "没有找到这个家电"
+  }
+}</t>
+  </si>
+  <si>
+    <t>ac_006</t>
+  </si>
+  <si>
+    <t>免设备+继承设备名</t>
+  </si>
+  <si>
+    <t>发送”打开卧室空调的“音频信息</t>
+  </si>
+  <si>
+    <t>ac_007</t>
+  </si>
+  <si>
+    <t>打开净化器-通用技能-空调关机</t>
+  </si>
+  <si>
+    <t>发送“现在几点”音频信息</t>
+  </si>
+  <si>
+    <t>现在几点</t>
+  </si>
+  <si>
+    <t>发送“卧室空调关闭”音频信息</t>
+  </si>
+  <si>
+    <t>卧室空调关闭</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "卧室空调关闭"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "关机"
+  },
+  "device_status": {
+    "code": 200,
+    "power": "off"
+  }
+}</t>
+  </si>
+  <si>
     <t>scence_001</t>
   </si>
   <si>
@@ -51,9 +529,6 @@
     <t>发送“我回来了”音频信息</t>
   </si>
   <si>
-    <t>校验-状态是否正确</t>
-  </si>
-  <si>
     <t>{
   "login": {
     "code": 200,
@@ -65,7 +540,7 @@
   },
   "nlg": {
     "code": 200,
-    "text": "回家场景还没有设备"
+    "text": "回家场景"
   }
 }</t>
   </si>
@@ -90,7 +565,7 @@
   },
   "nlg": {
     "code": 200,
-    "text": "拜拜，我可能会有点想你"
+    "text": "离家场景"
   }
 }</t>
   </si>
@@ -265,7 +740,7 @@
   },
   "nlg": {
     "code": 200,
-    "text": "没有找到大海之歌场景,请在美的美居APP上添加"
+    "text": "正在为您执行场景"
   }
 }</t>
   </si>
@@ -290,7 +765,7 @@
   },
   "nlg": {
     "code": 200,
-    "text": "没有找到暖暖春日场景,请在美的美居APP上添加"
+    "text": "正在为您执行场景"
   }
 }</t>
   </si>
@@ -326,6 +801,9 @@
     <t>禅意竹海</t>
   </si>
   <si>
+    <t>发送“禅意竹海”音频信息</t>
+  </si>
+  <si>
     <t>{
   "login": {
     "code": 200,
@@ -417,259 +895,139 @@
 }</t>
   </si>
   <si>
-    <t>control_001</t>
-  </si>
-  <si>
-    <t>打开所有设备</t>
-  </si>
-  <si>
-    <t>发送”打开所有设备“音频信息</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "打开所有设备"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "打开"
-  },
- "device_status": {
+    <t>打开空调</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "打开卧室空调"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "开机"
+  },
+  "device_status": {
     "code": 200,
     "power": "on"
   }
 }</t>
   </si>
   <si>
-    <t>control_002</t>
-  </si>
-  <si>
-    <t>发送”关闭所有设备“音频信息</t>
-  </si>
-  <si>
-    <t>关闭所有设备</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "关闭所有设备"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "马上关掉"
+    <t>制冷模式</t>
+  </si>
+  <si>
+    <t>发送”制热模式“音频信息</t>
+  </si>
+  <si>
+    <t>制热模式卧室空调</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "卧室空调设为制冷模式"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "制冷模式"
   },
   "device_status": {
     "code": 200,
-    "power": "off"
-  }
-}</t>
-  </si>
-  <si>
-    <t>ac_001</t>
-  </si>
-  <si>
-    <t>打开空调</t>
-  </si>
-  <si>
-    <t>发送”打开卧室空调的“音频信息</t>
-  </si>
-  <si>
-    <t>打开卧室空调</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "打开卧室空调"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "开机"
+    "mode": "cool"
+  }
+}</t>
+  </si>
+  <si>
+    <t>设置温度</t>
+  </si>
+  <si>
+    <t>发送”卧室空调二十五度“音频信息</t>
+  </si>
+  <si>
+    <t>卧室空调二十五度</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "卧室空调二十五度"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "25度"
   },
   "device_status": {
     "code": 200,
-    "power": "on"
-  }
-}</t>
-  </si>
-  <si>
-    <t>ac_002</t>
-  </si>
-  <si>
-    <t>制冷模式</t>
-  </si>
-  <si>
-    <t>发送”制热模式“音频信息</t>
-  </si>
-  <si>
-    <t>制热模式卧室空调</t>
-  </si>
-  <si>
-    <t>发送”卧室空调设为制冷模式“音频信息</t>
-  </si>
-  <si>
-    <t>卧室空调设为制冷模式</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "卧室空调设为制冷模式"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "制冷模式"
+    "temperature": "25"
+  }
+}</t>
+  </si>
+  <si>
+    <t>调高风速</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "卧室空调设为最大风"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "最大风"
   },
   "device_status": {
     "code": 200,
-    "mode": "cool"
-  }
-}</t>
-  </si>
-  <si>
-    <t>ac_003</t>
-  </si>
-  <si>
-    <t>设置温度</t>
-  </si>
-  <si>
-    <t>发送”卧室空调二十五度“音频信息</t>
-  </si>
-  <si>
-    <t>卧室空调二十五度</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "卧室空调廿五度"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "25度"
+    "wind_speed": "100"
+  }
+}</t>
+  </si>
+  <si>
+    <t>制热模式</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "制热模式卧室空调"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "制热"
   },
   "device_status": {
     "code": 200,
-    "temperature": "25"
-  }
-}</t>
-  </si>
-  <si>
-    <t>ac_004</t>
-  </si>
-  <si>
-    <t>调高风速</t>
-  </si>
-  <si>
-    <t>发送”卧室空调设为最大风“音频信息</t>
-  </si>
-  <si>
-    <t>卧室空调设为最大风</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "卧室空调设为最大风"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "最大风"
-  },
-  "device_status": {
-    "code": 200,
-    "wind_speed": "100"
-  }
-}</t>
-  </si>
-  <si>
-    <t>ac_005</t>
-  </si>
-  <si>
-    <t>制热模式</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "制热模式卧室空调"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "制热"
-  },
-  "device_status": {
-    "code": 200,
     "mode": "heat"
   }
 }</t>
   </si>
   <si>
-    <t>ac_006</t>
-  </si>
-  <si>
     <t>空调关机</t>
   </si>
   <si>
     <t>发送”卧室空调关闭“音频信息</t>
   </si>
   <si>
-    <t>卧室空调关闭</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "卧室空调关闭"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "关机"
-  },
-  "device_status": {
-    "code": 200,
-    "power": "off"
-  }
-}</t>
-  </si>
-  <si>
-    <t>ac_007</t>
-  </si>
-  <si>
     <t>在开机状态下-查询空调状态</t>
   </si>
   <si>
@@ -762,7 +1120,7 @@
   },
   "nlg": {
     "code": 200,
-    "text": "方洪波，现任美的集团股份有限公司董事长兼总裁"
+    "text": "美的集团"
   }
 }</t>
   </si>
@@ -966,17 +1324,14 @@
     <t>发送“时间“音频信息</t>
   </si>
   <si>
-    <t>现在几点</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "现在几点了"
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "现在几点"
   },
   "nlg": {
     "code": 200,
@@ -1088,7 +1443,7 @@
   },
   "asr": {
     "code": 200,
-    "text": "为什么洗衣机不脱水啦"
+    "text": "为什么洗衣机不脱水了"
   },
   "nlg": {
     "code": 200,
@@ -1097,6 +1452,331 @@
 }</t>
   </si>
   <si>
+    <t>rasa_005</t>
+  </si>
+  <si>
+    <t>发送“什么叫情景体验“音频信息</t>
+  </si>
+  <si>
+    <t>什么叫情景体验</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "什么叫情景体验"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "情景体验是科幕空间站通过研究人体健康大数据，综合考虑人体对环境和空间的感受，预设空调参数，让用户一键即达舒适和健康的环境。如果您想使用情景体验，请对我说，小美小美， 打开情景体验"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_006</t>
+  </si>
+  <si>
+    <t>发送“什么叫风吹人“音频信息</t>
+  </si>
+  <si>
+    <t>什么叫风吹人</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "什么叫风吹人"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风吹人是通过空调摄像头，计算出人体实时位置，仅对该区域进行送风。送风区域可以跟随人体走动而随时变化，人动，风也动。如您想设置风吹人，请对我说，小美小美，空调打开风吹人。"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_007</t>
+  </si>
+  <si>
+    <t>发送“什么叫风避人“音频信息</t>
+  </si>
+  <si>
+    <t>什么叫风避人</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "什么叫风避人"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风避人是通过空调摄像头，计算出人体实时位置，让风避开人体位置。避风区域可以跟随人体走动而随时变化，人在哪里，避风区域就在哪里。如您想设置风避人，请对我说，小美小美， 空调打开风避人。"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_008</t>
+  </si>
+  <si>
+    <t>发送“情景体验可以帮我解决什么问题“音频信息</t>
+  </si>
+  <si>
+    <t>情景体验可以帮我解决什么问题</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "情景体验可以帮我解决什么问题"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "情景体验是科幕空间站通过研究人体健康大数据，综合考虑人体对环境和空间的感受，预设空调参数，让用户一键即达舒适和健康的环境。如果您想使用情景体验，请对我说，小美小美， 打开情景体验"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_009</t>
+  </si>
+  <si>
+    <t>发送“空调加湿箱缺水了怎么办“音频信息</t>
+  </si>
+  <si>
+    <t>空调加湿箱缺水了怎么办</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "空调加湿箱缺水了怎么办"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "请查看纸质说明书第17页，《水箱加水及加湿滤网更换》章节查看详细介绍"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_010</t>
+  </si>
+  <si>
+    <t>发送“空调水箱缺水了怎么加水“音频信息</t>
+  </si>
+  <si>
+    <t>空调水箱缺水了怎么加水</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "空调水箱缺水了怎么加水"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "请查看纸质说明书第17页，《水箱加水及加湿滤网更换》章节查看详细介绍"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_011</t>
+  </si>
+  <si>
+    <t>发送“空调缺水了怎么办“音频信息</t>
+  </si>
+  <si>
+    <t>空调缺水了怎么办</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "空调缺水了怎么办"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "请查看纸质说明书第17页，《水箱加水及加湿滤网更换》章节查看详细介绍"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_012</t>
+  </si>
+  <si>
+    <t>发送“风吹人可以帮我解决什么问题“音频信息</t>
+  </si>
+  <si>
+    <t>风吹人可以帮我解决什么问题</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "风吹人可以帮我解决什么问题"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风吹人是通过空调摄像头，计算出人体实时位置，仅对该区域进行送风。送风区域可以跟随人体走动而随时变化，人动，风也动。如您想设置风吹人，请对我说，小美小美，空调打开风吹人。"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_013</t>
+  </si>
+  <si>
+    <t>发送“风避人是什么效果“音频信息</t>
+  </si>
+  <si>
+    <t>风避人是什么效果</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "风避人是什么效果"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风避人是通过空调摄像头，计算出人体实时位置，让风避开人体位置。避风区域可以跟随人体走动而随时变化，人在哪里，避风区域就在哪里。如您想设置风避人，请对我说，小美小美， 空调打开风避人。"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_014</t>
+  </si>
+  <si>
+    <t>发送“风避人有什么用“音频信息</t>
+  </si>
+  <si>
+    <t>风避人有什么用</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "风避人有什么用"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风避人是通过空调摄像头，计算出人体实时位置，让风避开人体位置。避风区域可以跟随人体走动而随时变化，人在哪里，避风区域就在哪里。如您想设置风避人，请对我说，小美小美， 空调打开风避人。"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_015</t>
+  </si>
+  <si>
+    <t>发送“风避人的意思是什么“音频信息</t>
+  </si>
+  <si>
+    <t>风避人的意思是什么</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "风避人的意思是什么"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风避人是通过空调摄像头，计算出人体实时位置，让风避开人体位置。避风区域可以跟随人体走动而随时变化，人在哪里，避风区域就在哪里。如您想设置风避人，请对我说，小美小美， 空调打开风避人。"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_016</t>
+  </si>
+  <si>
+    <t>发送“麻烦告诉我一下什么是情景体验“音频信息</t>
+  </si>
+  <si>
+    <t>麻烦告诉我一下什么是情景体验</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "麻烦告诉我一下什么是情景体验"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "情景体验是科幕空间站通过研究人体健康大数据，综合考虑人体对环境和空间的感受，预设空调参数，让用户一键即达舒适和健康的环境。如果您想使用情景体验，请对我说，小美小美， 打开情景体验"
+  }
+}</t>
+  </si>
+  <si>
+    <t>rasa_017</t>
+  </si>
+  <si>
+    <t>发送“麻烦告诉我一下什么是风吹人“音频信息</t>
+  </si>
+  <si>
+    <t>麻烦告诉我一下什么是风吹人</t>
+  </si>
+  <si>
+    <t>{
+  "login": {
+    "code": 200,
+    "message": "login success"
+  },
+  "asr": {
+    "code": 200,
+    "text": "麻烦告诉我一下什么是风吹人"
+  },
+  "nlg": {
+    "code": 200,
+    "text": "风吹人是通过空调摄像头，计算出人体实时位置，仅对该区域进行送风。送风区域可以跟随人体走动而随时变化，人动，风也动。如您想设置风吹人，请对我说，小美小美，空调打开风吹人。"
+  }
+}</t>
+  </si>
+  <si>
     <t>gz_001</t>
   </si>
   <si>
@@ -1546,50 +2226,6 @@
   </si>
   <si>
     <t>场景用例（增加-删除-查询）</t>
-  </si>
-  <si>
-    <t>打开净化器</t>
-  </si>
-  <si>
-    <t>发送”打开净化器“音频信息</t>
-  </si>
-  <si>
-    <t>发送“风速小一点”音频信息</t>
-  </si>
-  <si>
-    <t>风速小一点</t>
-  </si>
-  <si>
-    <t>{
-  "login": {
-    "code": 200,
-    "message": "login success"
-  },
-  "asr": {
-    "code": 200,
-    "text": "风速小一点"
-  },
-  "nlg": {
-    "code": 200,
-    "text": "风速小一点"
-  },
-  "device_status": {
-    "code": 200,
-    "power": "on"
-  }
-}</t>
-  </si>
-  <si>
-    <t>发送“现在几点”音频信息</t>
-  </si>
-  <si>
-    <t>发送”打开空调“音频信息</t>
-  </si>
-  <si>
-    <t>发送“空调温度高一点”音频信息</t>
-  </si>
-  <si>
-    <t>空调温度高一点</t>
   </si>
 </sst>
 </file>
@@ -1597,10 +2233,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -1617,52 +2253,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -1672,7 +2262,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1694,16 +2284,32 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1716,15 +2322,23 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1738,17 +2352,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <i/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1756,6 +2378,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1770,7 +2406,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1782,31 +2454,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1824,13 +2478,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1842,115 +2580,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1985,19 +2621,6 @@
       <right style="thin">
         <color auto="1"/>
       </right>
-      <top/>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
       <top style="thin">
         <color auto="1"/>
       </top>
@@ -2012,7 +2635,31 @@
         <color auto="1"/>
       </right>
       <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2040,37 +2687,17 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
       </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
       </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2099,17 +2726,26 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
       </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
       </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2121,10 +2757,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="5">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="6">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0">
@@ -2133,174 +2769,171 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0">
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="12">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="8">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="10">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="5">
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="9">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7">
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0">
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="11">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="9">
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="12">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0">
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0">
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0">
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2308,19 +2941,31 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -2670,10 +3315,669 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="21" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="12.625" customWidth="1"/>
+    <col min="2" max="2" width="29.625" customWidth="1"/>
+    <col min="3" max="3" width="35.375" customWidth="1"/>
+    <col min="4" max="4" width="43" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="2"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="16">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D24" sqref="D24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29" customHeight="1" outlineLevelCol="5"/>
+  <cols>
+    <col min="2" max="2" width="26.5" customWidth="1"/>
+    <col min="3" max="3" width="37.875" customWidth="1"/>
+    <col min="4" max="4" width="25.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" customHeight="1" spans="1:6">
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" customHeight="1" spans="1:6">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" customHeight="1" spans="1:6">
+      <c r="A3" s="2"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" customHeight="1" spans="1:6">
+      <c r="A4" s="2"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:6">
+      <c r="A5" s="5"/>
+      <c r="B5" s="24"/>
+      <c r="C5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" customHeight="1" spans="1:6">
+      <c r="A6" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" customHeight="1" spans="1:6">
+      <c r="A7" s="2"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" customHeight="1" spans="1:6">
+      <c r="A8" s="2"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" customHeight="1" spans="1:6">
+      <c r="A9" s="2"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="2"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="5"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="1"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="1"/>
+      <c r="B17" s="1"/>
+      <c r="C17" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="1"/>
+      <c r="B18" s="1"/>
+      <c r="C18" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="1"/>
+      <c r="B20" s="1"/>
+      <c r="C20" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="1"/>
+      <c r="B21" s="1"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="2"/>
+      <c r="B23" s="11"/>
+      <c r="C23" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" s="2"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="2"/>
+      <c r="B24" s="11"/>
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="2"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="5"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+    </row>
+  </sheetData>
+  <mergeCells count="14">
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A6:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A22:A25"/>
+    <mergeCell ref="B2:B5"/>
+    <mergeCell ref="B6:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B22:B25"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:F32"/>
+  <sheetViews>
+    <sheetView topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31" customHeight="1" outlineLevelCol="5"/>
@@ -2685,863 +3989,773 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>7</v>
+      <c r="A2" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>91</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+        <v>92</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>12</v>
+      <c r="A4" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>95</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+        <v>96</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>15</v>
+      <c r="A6" s="1" t="s">
+        <v>98</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>16</v>
+        <v>99</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+        <v>100</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="11"/>
+      <c r="A7" s="7"/>
       <c r="B7" s="20"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>20</v>
+      <c r="A8" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>103</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="20"/>
+      <c r="A9" s="18"/>
+      <c r="B9" s="22"/>
       <c r="C9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+        <v>104</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>24</v>
-      </c>
+      <c r="A10" s="19"/>
+      <c r="B10" s="23"/>
       <c r="C10" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="11"/>
-      <c r="B11" s="20"/>
+      <c r="A11" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="B11" s="20" t="s">
+        <v>107</v>
+      </c>
       <c r="C11" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+        <v>108</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="B12" s="20" t="s">
-        <v>28</v>
-      </c>
+      <c r="A12" s="7"/>
+      <c r="B12" s="20"/>
       <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="11"/>
-      <c r="B13" s="20"/>
+      <c r="A13" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="B13" s="20" t="s">
+        <v>111</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+        <v>112</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="B14" s="20" t="s">
-        <v>32</v>
-      </c>
+      <c r="A14" s="7"/>
+      <c r="B14" s="20"/>
       <c r="C14" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="11"/>
-      <c r="B15" s="20"/>
+      <c r="A15" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B15" s="20" t="s">
+        <v>115</v>
+      </c>
       <c r="C15" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
+        <v>116</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="20" t="s">
-        <v>36</v>
-      </c>
+      <c r="A16" s="7"/>
+      <c r="B16" s="20"/>
       <c r="C16" s="2" t="s">
-        <v>37</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="11"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17" s="20" t="s">
+        <v>119</v>
+      </c>
       <c r="C17" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+        <v>120</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="B18" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="A18" s="7"/>
+      <c r="B18" s="20"/>
       <c r="C18" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="11"/>
-      <c r="B19" s="20"/>
+      <c r="A19" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>123</v>
+      </c>
       <c r="C19" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+        <v>124</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="B20" s="20" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="7"/>
+      <c r="B20" s="20"/>
       <c r="C20" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="11"/>
-      <c r="B21" s="20"/>
+      <c r="A21" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C21" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="E21" s="10"/>
-      <c r="F21" s="10"/>
+        <v>128</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B22" s="20" t="s">
-        <v>48</v>
-      </c>
+      <c r="A22" s="7"/>
+      <c r="B22" s="20"/>
       <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="11"/>
-      <c r="B23" s="20"/>
+      <c r="A23" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>131</v>
+      </c>
       <c r="C23" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="10"/>
-      <c r="F23" s="10"/>
+        <v>132</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="B24" s="20" t="s">
-        <v>52</v>
-      </c>
+      <c r="A24" s="7"/>
+      <c r="B24" s="20"/>
       <c r="C24" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
     </row>
     <row r="25" customHeight="1" spans="1:6">
-      <c r="A25" s="11"/>
-      <c r="B25" s="20"/>
+      <c r="A25" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B25" s="20" t="s">
+        <v>135</v>
+      </c>
       <c r="C25" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
+        <v>136</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
     </row>
     <row r="26" customHeight="1" spans="1:6">
-      <c r="A26" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B26" s="20" t="s">
-        <v>55</v>
-      </c>
+      <c r="A26" s="7"/>
+      <c r="B26" s="20"/>
       <c r="C26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D26" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
     </row>
     <row r="27" customHeight="1" spans="1:6">
-      <c r="A27" s="11"/>
-      <c r="B27" s="20"/>
+      <c r="A27" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B27" s="20" t="s">
+        <v>139</v>
+      </c>
       <c r="C27" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
+        <v>140</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
     </row>
     <row r="28" customHeight="1" spans="1:6">
-      <c r="A28" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="B28" s="20" t="s">
-        <v>59</v>
-      </c>
+      <c r="A28" s="7"/>
+      <c r="B28" s="20"/>
       <c r="C28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D28" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
     </row>
     <row r="29" customHeight="1" spans="1:6">
-      <c r="A29" s="11"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B29" s="20" t="s">
+        <v>143</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+        <v>144</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
     </row>
     <row r="30" customHeight="1" spans="1:6">
-      <c r="A30" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="B30" s="20" t="s">
-        <v>63</v>
-      </c>
+      <c r="A30" s="7"/>
+      <c r="B30" s="20"/>
       <c r="C30" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>63</v>
-      </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
+        <v>9</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
     </row>
     <row r="31" customHeight="1" spans="1:6">
-      <c r="A31" s="11"/>
-      <c r="B31" s="20"/>
+      <c r="A31" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" s="20" t="s">
+        <v>147</v>
+      </c>
       <c r="C31" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+        <v>148</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="7"/>
+      <c r="B32" s="20"/>
+      <c r="C32" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="30">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A8:A10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="A31:A32"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="B31:B32"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="5"/>
-  <cols>
-    <col min="1" max="1" width="12.625" customWidth="1"/>
-    <col min="2" max="2" width="29.625" customWidth="1"/>
-    <col min="3" max="3" width="27.125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" ht="16.5" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" ht="33" spans="1:6">
-      <c r="A2" s="20" t="s">
-        <v>66</v>
-      </c>
-      <c r="B2" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-    </row>
-    <row r="3" ht="409.5" spans="1:6">
-      <c r="A3" s="20"/>
-      <c r="B3" s="21"/>
-      <c r="C3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>69</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" ht="33" spans="1:6">
-      <c r="A4" s="20" t="s">
-        <v>70</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-    </row>
-    <row r="5" ht="409.5" spans="1:6">
-      <c r="A5" s="20"/>
-      <c r="B5" s="21" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>73</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B2:B3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D41" sqref="D41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="11" style="14" customWidth="1"/>
-    <col min="2" max="2" width="26.5" style="14" customWidth="1"/>
-    <col min="3" max="3" width="31.625" style="14" customWidth="1"/>
-    <col min="4" max="4" width="70.125" style="14" customWidth="1"/>
-    <col min="5" max="6" width="8.875" style="14" customWidth="1"/>
+    <col min="1" max="1" width="11" style="12" customWidth="1"/>
+    <col min="2" max="2" width="26.5" style="12" customWidth="1"/>
+    <col min="3" max="3" width="31.625" style="12" customWidth="1"/>
+    <col min="4" max="4" width="70.125" style="12" customWidth="1"/>
+    <col min="5" max="6" width="8.875" style="12" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:9">
       <c r="A2" s="2" t="s">
-        <v>74</v>
+        <v>45</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>75</v>
+        <v>150</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
+        <v>82</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="13"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14"/>
     </row>
     <row r="3" customHeight="1" spans="1:9">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="15"/>
+      <c r="D3" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="E3" s="13"/>
+      <c r="F3" s="13"/>
+      <c r="G3" s="14"/>
+      <c r="H3" s="14"/>
+      <c r="I3" s="14"/>
     </row>
     <row r="4" customHeight="1" spans="1:9">
-      <c r="A4" s="16" t="s">
-        <v>79</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>80</v>
+      <c r="A4" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>152</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="15"/>
-      <c r="H4" s="15"/>
-      <c r="I4" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E4" s="13"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="14"/>
+      <c r="H4" s="14"/>
+      <c r="I4" s="14"/>
     </row>
     <row r="5" customHeight="1" spans="1:9">
-      <c r="A5" s="16"/>
-      <c r="B5" s="16"/>
+      <c r="A5" s="15"/>
+      <c r="B5" s="15"/>
       <c r="C5" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E5" s="13"/>
+      <c r="F5" s="13"/>
+      <c r="G5" s="14"/>
+      <c r="H5" s="14"/>
+      <c r="I5" s="14"/>
     </row>
     <row r="6" customHeight="1" spans="1:9">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
+      <c r="D6" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="E6" s="13"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
     </row>
     <row r="7" customHeight="1" spans="1:9">
       <c r="A7" s="2" t="s">
-        <v>86</v>
+        <v>63</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>87</v>
+        <v>156</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
+        <v>157</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="14"/>
+      <c r="H7" s="14"/>
+      <c r="I7" s="14"/>
     </row>
     <row r="8" customHeight="1" spans="1:9">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
+      <c r="A8" s="10"/>
+      <c r="B8" s="10"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
+      <c r="D8" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
     </row>
     <row r="9" customHeight="1" spans="1:9">
       <c r="A9" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>92</v>
+        <v>160</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
+        <v>60</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="G9" s="14"/>
+      <c r="H9" s="14"/>
+      <c r="I9" s="14"/>
     </row>
     <row r="10" customHeight="1" spans="1:9">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="10"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>95</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
+      <c r="D10" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
     </row>
     <row r="11" customHeight="1" spans="1:9">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>97</v>
+        <v>162</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
+        <v>153</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
     </row>
     <row r="12" customHeight="1" spans="1:9">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="10"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>98</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
+      <c r="D12" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>80</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>100</v>
+        <v>164</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
+        <v>165</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="10"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>103</v>
-      </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
       <c r="A15" s="17" t="s">
-        <v>104</v>
+        <v>83</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>105</v>
+        <v>166</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E15" s="11"/>
-      <c r="F15" s="11"/>
+        <v>82</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="7"/>
+      <c r="F15" s="7"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
       <c r="A16" s="18"/>
       <c r="B16" s="18"/>
       <c r="C16" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E16" s="11"/>
-      <c r="F16" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
       <c r="A17" s="19"/>
@@ -3549,39 +4763,39 @@
       <c r="C17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D17" s="4" t="s">
-        <v>108</v>
-      </c>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
+      <c r="D17" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
       <c r="A18" s="17" t="s">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="B18" s="17" t="s">
-        <v>110</v>
+        <v>171</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
+        <v>165</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
       <c r="A19" s="18"/>
       <c r="B19" s="18"/>
       <c r="C19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>107</v>
-      </c>
-      <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
+        <v>167</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
       <c r="A20" s="19"/>
@@ -3589,11 +4803,11 @@
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>111</v>
-      </c>
-      <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
+      <c r="D20" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="16">
@@ -3619,13 +4833,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="26" customHeight="1" outlineLevelCol="5"/>
@@ -3637,136 +4851,136 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>112</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>113</v>
+      <c r="A2" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>175</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="13" t="s">
-        <v>115</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>116</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>117</v>
+      <c r="A4" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>178</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>179</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="8"/>
-      <c r="B5" s="8"/>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>120</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>121</v>
+      <c r="A6" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>182</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="8"/>
-      <c r="B7" s="8"/>
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="13" t="s">
-        <v>123</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="11" t="s">
+        <v>184</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>124</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>125</v>
+      <c r="A8" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>186</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>187</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="8"/>
-      <c r="B9" s="8"/>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -3784,13 +4998,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="56" customHeight="1" outlineLevelCol="5"/>
@@ -3803,192 +5017,192 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="9" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="4" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>128</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>129</v>
+      <c r="A2" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>131</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+        <v>191</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>132</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>133</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>134</v>
+      <c r="A4" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>195</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>136</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+        <v>196</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>197</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="10"/>
+      <c r="B5" s="10"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>137</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>138</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>139</v>
+      <c r="A6" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>200</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+        <v>201</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
+      <c r="A7" s="10"/>
+      <c r="B7" s="10"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>142</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="3" t="s">
+        <v>203</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>144</v>
+      <c r="A8" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>146</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+        <v>206</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
+      <c r="A9" s="10"/>
+      <c r="B9" s="10"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
+      <c r="D9" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>148</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>149</v>
+      <c r="A10" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>210</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>151</v>
-      </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
+        <v>211</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="10"/>
       <c r="C11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="D11" s="3" t="s">
+        <v>213</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="8" t="s">
-        <v>153</v>
-      </c>
-      <c r="B12" s="8" t="s">
-        <v>154</v>
+      <c r="A12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>215</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>155</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
+        <v>216</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="10"/>
       <c r="C13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4" t="s">
-        <v>157</v>
-      </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
+      <c r="D13" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4010,13 +5224,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F9"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="63" customHeight="1" outlineLevelCol="5"/>
@@ -4028,160 +5242,550 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>159</v>
+      <c r="A2" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>219</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>160</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>161</v>
-      </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
+        <v>220</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>221</v>
+      </c>
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>162</v>
-      </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
+      <c r="D3" s="3" t="s">
+        <v>222</v>
+      </c>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>163</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>164</v>
+      <c r="A4" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>224</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>165</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>166</v>
-      </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
+        <v>225</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>226</v>
+      </c>
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="11"/>
-      <c r="B5" s="11"/>
+      <c r="A5" s="7"/>
+      <c r="B5" s="7"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>167</v>
-      </c>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
+      <c r="D5" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>168</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>169</v>
+      <c r="A6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>170</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>171</v>
-      </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
+        <v>230</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="11"/>
-      <c r="B7" s="11"/>
+      <c r="A7" s="7"/>
+      <c r="B7" s="7"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
+      <c r="D7" s="3" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>174</v>
+      <c r="A8" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>234</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>175</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>176</v>
-      </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
+        <v>235</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>236</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="11"/>
-      <c r="B9" s="11"/>
+      <c r="A9" s="7"/>
+      <c r="B9" s="7"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>177</v>
-      </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="12"/>
+      <c r="D9" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="8"/>
+    </row>
+    <row r="10" customHeight="1" spans="1:6">
+      <c r="A10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="D10" t="s">
+        <v>240</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:6">
+      <c r="A11" s="7"/>
+      <c r="B11" s="7"/>
+      <c r="C11" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:6">
+      <c r="A12" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>244</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:6">
+      <c r="A13" s="7"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:6">
+      <c r="A14" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D14" t="s">
+        <v>248</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:6">
+      <c r="A15" s="7"/>
+      <c r="B15" s="7"/>
+      <c r="C15" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>249</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:6">
+      <c r="A16" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="D16" t="s">
+        <v>252</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:6">
+      <c r="A17" s="7"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>253</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:6">
+      <c r="A18" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="D18" t="s">
+        <v>256</v>
+      </c>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+    </row>
+    <row r="19" customHeight="1" spans="1:6">
+      <c r="A19" s="7"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>257</v>
+      </c>
+      <c r="E19" s="6"/>
+      <c r="F19" s="6"/>
+    </row>
+    <row r="20" customHeight="1" spans="1:6">
+      <c r="A20" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="D20" t="s">
+        <v>260</v>
+      </c>
+      <c r="E20" s="6"/>
+      <c r="F20" s="6"/>
+    </row>
+    <row r="21" customHeight="1" spans="1:6">
+      <c r="A21" s="7"/>
+      <c r="B21" s="7"/>
+      <c r="C21" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="E21" s="6"/>
+      <c r="F21" s="6"/>
+    </row>
+    <row r="22" customHeight="1" spans="1:6">
+      <c r="A22" s="1" t="s">
+        <v>262</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="D22" t="s">
+        <v>264</v>
+      </c>
+      <c r="E22" s="6"/>
+      <c r="F22" s="6"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:6">
+      <c r="A23" s="7"/>
+      <c r="B23" s="7"/>
+      <c r="C23" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>265</v>
+      </c>
+      <c r="E23" s="6"/>
+      <c r="F23" s="6"/>
+    </row>
+    <row r="24" customHeight="1" spans="1:6">
+      <c r="A24" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D24" t="s">
+        <v>268</v>
+      </c>
+      <c r="E24" s="6"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" customHeight="1" spans="1:6">
+      <c r="A25" s="7"/>
+      <c r="B25" s="7"/>
+      <c r="C25" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>269</v>
+      </c>
+      <c r="E25" s="6"/>
+      <c r="F25" s="6"/>
+    </row>
+    <row r="26" customHeight="1" spans="1:6">
+      <c r="A26" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="D26" t="s">
+        <v>272</v>
+      </c>
+      <c r="E26" s="6"/>
+      <c r="F26" s="6"/>
+    </row>
+    <row r="27" customHeight="1" spans="1:6">
+      <c r="A27" s="7"/>
+      <c r="B27" s="7"/>
+      <c r="C27" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="E27" s="6"/>
+      <c r="F27" s="6"/>
+    </row>
+    <row r="28" customHeight="1" spans="1:6">
+      <c r="A28" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D28" t="s">
+        <v>276</v>
+      </c>
+      <c r="E28" s="6"/>
+      <c r="F28" s="6"/>
+    </row>
+    <row r="29" customHeight="1" spans="1:6">
+      <c r="A29" s="7"/>
+      <c r="B29" s="7"/>
+      <c r="C29" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>277</v>
+      </c>
+      <c r="E29" s="6"/>
+      <c r="F29" s="6"/>
+    </row>
+    <row r="30" customHeight="1" spans="1:6">
+      <c r="A30" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="D30" t="s">
+        <v>280</v>
+      </c>
+      <c r="E30" s="6"/>
+      <c r="F30" s="6"/>
+    </row>
+    <row r="31" customHeight="1" spans="1:6">
+      <c r="A31" s="7"/>
+      <c r="B31" s="7"/>
+      <c r="C31" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>281</v>
+      </c>
+      <c r="E31" s="6"/>
+      <c r="F31" s="6"/>
+    </row>
+    <row r="32" customHeight="1" spans="1:6">
+      <c r="A32" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="D32" t="s">
+        <v>284</v>
+      </c>
+      <c r="E32" s="6"/>
+      <c r="F32" s="6"/>
+    </row>
+    <row r="33" customHeight="1" spans="1:6">
+      <c r="A33" s="7"/>
+      <c r="B33" s="7"/>
+      <c r="C33" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="E33" s="6"/>
+      <c r="F33" s="6"/>
+    </row>
+    <row r="34" customHeight="1" spans="1:6">
+      <c r="A34" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="D34" t="s">
+        <v>288</v>
+      </c>
+      <c r="E34" s="6"/>
+      <c r="F34" s="6"/>
+    </row>
+    <row r="35" customHeight="1" spans="1:6">
+      <c r="A35" s="7"/>
+      <c r="B35" s="7"/>
+      <c r="C35" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>289</v>
+      </c>
+      <c r="E35" s="6"/>
+      <c r="F35" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="34">
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A4:A5"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="A34:A35"/>
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="B8:B9"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="B32:B33"/>
+    <mergeCell ref="B34:B35"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31" customHeight="1" outlineLevelCol="5"/>
@@ -4193,344 +5797,344 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>178</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>179</v>
+      <c r="A2" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>180</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>181</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>292</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>293</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="8"/>
-      <c r="B3" s="8"/>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
       <c r="C3" s="2" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>183</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+        <v>294</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
       <c r="C4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>184</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="D4" s="3" t="s">
+        <v>296</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>186</v>
+      <c r="A5" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>187</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>188</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+        <v>299</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>300</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="9"/>
-      <c r="B6" s="8"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="1"/>
       <c r="C6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+      <c r="D6" s="3" t="s">
+        <v>301</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="8" t="s">
-        <v>190</v>
-      </c>
-      <c r="B7" s="8" t="s">
-        <v>191</v>
+      <c r="A7" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>192</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>193</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+        <v>304</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="9"/>
-      <c r="B8" s="8"/>
+      <c r="A8" s="5"/>
+      <c r="B8" s="1"/>
       <c r="C8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="4" t="s">
-        <v>194</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>306</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="8" t="s">
-        <v>195</v>
-      </c>
-      <c r="B9" s="8" t="s">
-        <v>196</v>
+      <c r="A9" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>197</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>198</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+        <v>309</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>310</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="9"/>
-      <c r="B10" s="9"/>
+      <c r="A10" s="5"/>
+      <c r="B10" s="5"/>
       <c r="C10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D10" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+      <c r="D10" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="8" t="s">
-        <v>200</v>
-      </c>
-      <c r="B11" s="8" t="s">
-        <v>201</v>
+      <c r="A11" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>202</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>203</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>314</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>315</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="9"/>
-      <c r="B12" s="9"/>
+      <c r="A12" s="5"/>
+      <c r="B12" s="5"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>204</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>316</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>205</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>206</v>
+      <c r="A13" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>318</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>207</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>319</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="9"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="5"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="D14" s="3" t="s">
+        <v>321</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="B15" s="8" t="s">
-        <v>211</v>
+      <c r="A15" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>323</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>212</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>213</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>324</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>325</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="9"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="5"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>326</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" customHeight="1" spans="1:6">
-      <c r="A17" s="8" t="s">
-        <v>215</v>
-      </c>
-      <c r="B17" s="8" t="s">
-        <v>216</v>
+      <c r="A17" s="1" t="s">
+        <v>327</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>217</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>218</v>
-      </c>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
+        <v>329</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>330</v>
+      </c>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
     </row>
     <row r="18" customHeight="1" spans="1:6">
-      <c r="A18" s="9"/>
-      <c r="B18" s="8"/>
+      <c r="A18" s="5"/>
+      <c r="B18" s="1"/>
       <c r="C18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D18" s="4" t="s">
-        <v>219</v>
-      </c>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
+      <c r="D18" s="3" t="s">
+        <v>331</v>
+      </c>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" customHeight="1" spans="1:6">
-      <c r="A19" s="8" t="s">
-        <v>220</v>
-      </c>
-      <c r="B19" s="8" t="s">
-        <v>221</v>
+      <c r="A19" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>333</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>222</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
+        <v>334</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
     </row>
     <row r="20" customHeight="1" spans="1:6">
-      <c r="A20" s="9"/>
-      <c r="B20" s="8"/>
+      <c r="A20" s="5"/>
+      <c r="B20" s="1"/>
       <c r="C20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D20" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
+      <c r="D20" s="3" t="s">
+        <v>336</v>
+      </c>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" customHeight="1" spans="1:6">
-      <c r="A21" s="8" t="s">
-        <v>225</v>
-      </c>
-      <c r="B21" s="8" t="s">
-        <v>226</v>
+      <c r="A21" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>338</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>228</v>
-      </c>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="D21" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
     </row>
     <row r="22" customHeight="1" spans="1:6">
-      <c r="A22" s="9"/>
-      <c r="B22" s="8"/>
+      <c r="A22" s="5"/>
+      <c r="B22" s="1"/>
       <c r="C22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D22" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="3" t="s">
+        <v>341</v>
+      </c>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
     </row>
     <row r="23" customHeight="1" spans="1:6">
-      <c r="A23" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="B23" s="8" t="s">
-        <v>231</v>
+      <c r="A23" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>343</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>232</v>
-      </c>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
+        <v>339</v>
+      </c>
+      <c r="D23" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
     </row>
     <row r="24" customHeight="1" spans="1:6">
-      <c r="A24" s="9"/>
-      <c r="B24" s="8"/>
+      <c r="A24" s="5"/>
+      <c r="B24" s="1"/>
       <c r="C24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="3" t="s">
+        <v>345</v>
+      </c>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="22">
@@ -4562,13 +6166,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="A1:F16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="31" customHeight="1" outlineLevelCol="5"/>
@@ -4580,228 +6184,228 @@
   </cols>
   <sheetData>
     <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="8" t="s">
-        <v>234</v>
-      </c>
-      <c r="B2" s="8" t="s">
-        <v>235</v>
+      <c r="A2" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>347</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>236</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>237</v>
-      </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
+        <v>348</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>349</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
     </row>
     <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
       <c r="C3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>238</v>
-      </c>
-      <c r="E3" s="3"/>
-      <c r="F3" s="3"/>
+      <c r="D3" s="3" t="s">
+        <v>350</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
     </row>
     <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="8" t="s">
-        <v>239</v>
-      </c>
-      <c r="B4" s="8" t="s">
-        <v>240</v>
+      <c r="A4" s="1" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>352</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
     </row>
     <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
       <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E5" s="3"/>
-      <c r="F5" s="3"/>
+      <c r="D5" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
     </row>
     <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="8" t="s">
-        <v>244</v>
-      </c>
-      <c r="B6" s="8" t="s">
-        <v>245</v>
+      <c r="A6" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>357</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E6" s="3"/>
-      <c r="F6" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
     </row>
     <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="9"/>
-      <c r="B7" s="9"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
       <c r="C7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3"/>
+      <c r="D7" s="3" t="s">
+        <v>360</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
     </row>
     <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="8" t="s">
-        <v>249</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>250</v>
+      <c r="A8" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E8" s="3"/>
-      <c r="F8" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
     </row>
     <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="9"/>
-      <c r="B9" s="9"/>
+      <c r="A9" s="5"/>
+      <c r="B9" s="5"/>
       <c r="C9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>253</v>
-      </c>
-      <c r="E9" s="3"/>
-      <c r="F9" s="3"/>
+      <c r="D9" s="3" t="s">
+        <v>365</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
     </row>
     <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="8" t="s">
-        <v>254</v>
-      </c>
-      <c r="B10" s="8" t="s">
-        <v>255</v>
+      <c r="A10" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>367</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E10" s="3"/>
-      <c r="F10" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
     </row>
     <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="8"/>
-      <c r="B11" s="8"/>
+      <c r="A11" s="1"/>
+      <c r="B11" s="1"/>
       <c r="C11" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E11" s="3"/>
-      <c r="F11" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
     </row>
     <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="8"/>
-      <c r="B12" s="8"/>
+      <c r="A12" s="1"/>
+      <c r="B12" s="1"/>
       <c r="C12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D12" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="E12" s="3"/>
-      <c r="F12" s="3"/>
+      <c r="D12" s="3" t="s">
+        <v>368</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
     </row>
     <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="8" t="s">
-        <v>257</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>258</v>
+      <c r="A13" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>370</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>251</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>252</v>
-      </c>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+        <v>363</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>364</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
     </row>
     <row r="14" customHeight="1" spans="1:6">
-      <c r="A14" s="8"/>
-      <c r="B14" s="8"/>
+      <c r="A14" s="1"/>
+      <c r="B14" s="1"/>
       <c r="C14" s="2" t="s">
-        <v>246</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>247</v>
-      </c>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+        <v>358</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>359</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
     </row>
     <row r="15" customHeight="1" spans="1:6">
-      <c r="A15" s="8"/>
-      <c r="B15" s="8"/>
+      <c r="A15" s="1"/>
+      <c r="B15" s="1"/>
       <c r="C15" s="2" t="s">
-        <v>241</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>242</v>
-      </c>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
+        <v>353</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
     </row>
     <row r="16" customHeight="1" spans="1:6">
-      <c r="A16" s="8"/>
-      <c r="B16" s="8"/>
+      <c r="A16" s="1"/>
+      <c r="B16" s="1"/>
       <c r="C16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="D16" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -4821,209 +6425,4 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="29" customHeight="1" outlineLevelCol="5"/>
-  <cols>
-    <col min="3" max="3" width="31.125" customWidth="1"/>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" customHeight="1" spans="1:6">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" customHeight="1" spans="1:6">
-      <c r="A2" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-    </row>
-    <row r="3" customHeight="1" spans="1:6">
-      <c r="A3" s="6"/>
-      <c r="B3" s="6"/>
-      <c r="C3" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-    </row>
-    <row r="4" customHeight="1" spans="1:6">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E4" s="5"/>
-      <c r="F4" s="5"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:6">
-      <c r="A5" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E5" s="5"/>
-      <c r="F5" s="5"/>
-    </row>
-    <row r="6" customHeight="1" spans="1:6">
-      <c r="A6" s="6"/>
-      <c r="B6" s="6"/>
-      <c r="C6" s="2" t="s">
-        <v>264</v>
-      </c>
-      <c r="D6" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-    </row>
-    <row r="7" customHeight="1" spans="1:6">
-      <c r="A7" s="6"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D7" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-    </row>
-    <row r="8" customHeight="1" spans="1:6">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" customHeight="1" spans="1:6">
-      <c r="A9" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>259</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:6">
-      <c r="A10" s="6"/>
-      <c r="B10" s="6"/>
-      <c r="C10" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>77</v>
-      </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:6">
-      <c r="A11" s="6"/>
-      <c r="B11" s="6"/>
-      <c r="C11" s="2" t="s">
-        <v>266</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:6">
-      <c r="A12" s="6"/>
-      <c r="B12" s="6"/>
-      <c r="C12" s="2" t="s">
-        <v>261</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:6">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>263</v>
-      </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-    </row>
-  </sheetData>
-  <mergeCells count="6">
-    <mergeCell ref="A2:A4"/>
-    <mergeCell ref="A5:A8"/>
-    <mergeCell ref="A9:A13"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="B5:B8"/>
-    <mergeCell ref="B9:B13"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
-</worksheet>
 </file>